--- a/testdata/apidata/intent/gynaecology/gynaecology_to_test.xlsx
+++ b/testdata/apidata/intent/gynaecology/gynaecology_to_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\kuaishang_auto\testdata\apidata\intent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\kuaishang_auto\testdata\apidata\intent\gynaecology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7522F0-9D14-4385-8C87-A74A0CBAC8B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0D611-90BD-4F3C-AC46-94C4AA96D8DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4001</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -25633,8 +25633,7 @@
   <dimension ref="A1:D4001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J177" sqref="J177"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
